--- a/excelPourBD/t_lesson.xlsx
+++ b/excelPourBD/t_lesson.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet\P_GesProj2\Projet CatalogueCours\Dépôt\depot\excelPourBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet\P_GesProj2\Projet CatalogueCours\Depot GitHub\col-go-lo\excelPourBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>idLesson</t>
   </si>
@@ -38,7 +38,19 @@
     <t>lesDuration</t>
   </si>
   <si>
-    <t>lesLessonDate</t>
+    <t>Education civique</t>
+  </si>
+  <si>
+    <t>Japonais</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>lesNbrSequence</t>
+  </si>
+  <si>
+    <t>4h</t>
   </si>
 </sst>
 </file>
@@ -74,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,13 +369,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -378,7 +394,35 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42871</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42849</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/excelPourBD/t_lesson.xlsx
+++ b/excelPourBD/t_lesson.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>idLesson</t>
   </si>
@@ -51,6 +51,54 @@
   </si>
   <si>
     <t>4h</t>
+  </si>
+  <si>
+    <t>Sécurité informatique</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Bureautique</t>
+  </si>
+  <si>
+    <t>Mahématique</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>Téléphonie</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>9h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Electronique</t>
+  </si>
+  <si>
+    <t>10h</t>
   </si>
 </sst>
 </file>
@@ -369,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -398,6 +446,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -412,6 +463,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -423,6 +477,142 @@
       </c>
       <c r="E3">
         <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43357</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43320</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43684</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43018</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43806</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43205</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43153</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
